--- a/C和python学习计划.xlsx
+++ b/C和python学习计划.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11925" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="C语言学习进度" sheetId="1" r:id="rId1"/>
-    <sheet name="python学习" sheetId="2" r:id="rId2"/>
+    <sheet name="C语言课程介绍" sheetId="3" r:id="rId1"/>
+    <sheet name="C语言学习课表及其记录" sheetId="1" r:id="rId2"/>
+    <sheet name="python学习" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="221">
+  <si>
+    <t>课程名</t>
+  </si>
+  <si>
+    <t>C++语言教程_01.c++24期全面版教程(124.21G)</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>I:\C++语言教程_01.c++24期全面版教程(124.21G)</t>
+  </si>
   <si>
     <t>颜色</t>
   </si>
@@ -27,6 +40,24 @@
   </si>
   <si>
     <t>已经学习过</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>详细类目</t>
+  </si>
+  <si>
+    <t>课程点评</t>
+  </si>
+  <si>
+    <t>重点关注的知识</t>
+  </si>
+  <si>
+    <t>笔记总结</t>
+  </si>
+  <si>
+    <t>遗留问题</t>
   </si>
   <si>
     <t>说明:重点内容在印象笔记中,而课程的原本笔记在summary中,目录还是按照一致的</t>
@@ -63,15 +94,19 @@
     <t>VisualStdio的用法没有看</t>
   </si>
   <si>
+    <t>1.一个helloworld明白最基础的表写程序方法,以后忘记基础的时候回来看一看</t>
+  </si>
+  <si>
+    <t>1.这部分笔记都在C基础讲义
+2.关注的点:Helloworld明白基础含义</t>
+  </si>
+  <si>
     <t>01-C基础第04天（数据类型与运算符）</t>
   </si>
   <si>
     <t>数据类型记住</t>
   </si>
   <si>
-    <t>2020.01.09</t>
-  </si>
-  <si>
     <t>01-C基础第05天（运算符和流程结构语句）</t>
   </si>
   <si>
@@ -84,18 +119,12 @@
     <t>排序算法自己敲并且思考</t>
   </si>
   <si>
-    <t>2020.01.10</t>
-  </si>
-  <si>
     <t>01-C基础第07天（字符串处理函数和函数）</t>
   </si>
   <si>
     <t>--&gt;函数</t>
   </si>
   <si>
-    <t>2020.01.16</t>
-  </si>
-  <si>
     <t>01-C基础第08天（指针上）</t>
   </si>
   <si>
@@ -105,34 +134,22 @@
     <t>10未看</t>
   </si>
   <si>
-    <t>2020.04.13</t>
-  </si>
-  <si>
     <t>01-C基础第10天（内存结构）</t>
   </si>
   <si>
     <t>练习题思路未看</t>
   </si>
   <si>
-    <t>2020.04.13-4.18</t>
-  </si>
-  <si>
     <t>01-C基础第11天（复合类型）</t>
   </si>
   <si>
     <t>16(含)后未看</t>
   </si>
   <si>
-    <t>4.18-22</t>
-  </si>
-  <si>
     <t>01-C基础第12天（文件上）</t>
   </si>
   <si>
     <t>只看了文件的打开关闭,字符读写和行读写</t>
-  </si>
-  <si>
-    <t>4.28-</t>
   </si>
   <si>
     <t>01-C基础第13天（文件下）</t>
@@ -672,8 +689,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -700,15 +717,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,14 +791,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -736,6 +798,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -753,36 +831,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,9 +847,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,40 +859,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,19 +881,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,13 +983,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,37 +1019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,109 +1049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,17 +1137,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1161,8 +1155,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,8 +1164,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,6 +1181,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,17 +1224,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,10 +1242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,133 +1254,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,23 +1424,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1756,876 +1761,926 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="D64" workbookViewId="0">
-      <selection activeCell="E23" sqref="E20:E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="39.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="16.625" style="1"/>
+    <col min="2" max="2" width="73.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="36" customHeight="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" ht="42" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="87.95" customHeight="1" spans="6:6">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="52.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="39.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="32.375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="22" style="12" customWidth="1"/>
+    <col min="10" max="10" width="16.625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="16.625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9">
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="6:6">
       <c r="F4" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="32.1" customHeight="1" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="3:7">
-      <c r="C6" s="15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="3:8">
+      <c r="C6" s="14"/>
       <c r="E6" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1" spans="3:6">
-      <c r="C7" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="3:8">
+      <c r="C7" s="14"/>
       <c r="E7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1" spans="3:8">
-      <c r="C8" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="14"/>
       <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1" spans="3:8">
-      <c r="C9" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="14"/>
       <c r="E9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1" spans="3:8">
-      <c r="C10" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="14"/>
       <c r="E10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1" spans="3:8">
-      <c r="C11" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="14"/>
       <c r="E11" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="3:5">
-      <c r="C12" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="14"/>
       <c r="E12" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" ht="21" customHeight="1" spans="3:8">
-      <c r="C13" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="14"/>
       <c r="E13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="3:8">
-      <c r="C14" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="14"/>
       <c r="E14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1" spans="3:8">
-      <c r="C15" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="14"/>
       <c r="E15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" ht="21" customHeight="1" spans="3:8">
-      <c r="C16" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="14"/>
       <c r="E16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" ht="21" customHeight="1" spans="3:6">
-      <c r="C17" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="14"/>
       <c r="E17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" ht="21" customHeight="1" spans="3:5">
-      <c r="C18" s="15"/>
-      <c r="E18" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" ht="21" customHeight="1" spans="3:5">
-      <c r="C19" s="15"/>
-      <c r="E19" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" ht="21" customHeight="1" spans="3:8">
-      <c r="C20" s="15"/>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="14"/>
+      <c r="E18" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="14"/>
+      <c r="E19" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" ht="21" customHeight="1" spans="3:8">
-      <c r="C21" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="14"/>
       <c r="E21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" ht="21" customHeight="1" spans="3:6">
-      <c r="C22" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="14"/>
       <c r="E22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="3:6">
-      <c r="C23" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="14"/>
       <c r="E23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" ht="21" customHeight="1" spans="3:5">
-      <c r="C24" s="15"/>
-      <c r="E24" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" ht="21" customHeight="1" spans="3:5">
-      <c r="C25" s="15"/>
-      <c r="E25" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" ht="21" customHeight="1" spans="3:5">
-      <c r="C26" s="15"/>
-      <c r="E26" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" ht="21" customHeight="1" spans="3:5">
-      <c r="C27" s="15"/>
-      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="21" customHeight="1" spans="3:5">
-      <c r="C28" s="15"/>
-      <c r="E28" s="14" t="s">
+    <row r="24" spans="3:5">
+      <c r="C24" s="14"/>
+      <c r="E24" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" ht="21" customHeight="1" spans="3:5">
-      <c r="C29" s="15"/>
-      <c r="E29" s="14" t="s">
+    <row r="25" spans="3:5">
+      <c r="C25" s="14"/>
+      <c r="E25" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="21" customHeight="1" spans="3:5">
-      <c r="C30" s="15"/>
-      <c r="D30" s="1" t="s">
+    <row r="26" spans="3:5">
+      <c r="C26" s="14"/>
+      <c r="E26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="14" t="s">
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="14"/>
+      <c r="D27" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" ht="21" customHeight="1" spans="3:5">
-      <c r="C31" s="15"/>
-      <c r="E31" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" ht="21" customHeight="1" spans="3:5">
-      <c r="C32" s="15"/>
-      <c r="E32" s="14" t="s">
+    <row r="28" spans="3:5">
+      <c r="C28" s="14"/>
+      <c r="E28" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="21" customHeight="1" spans="3:5">
-      <c r="C33" s="15"/>
-      <c r="E33" s="14" t="s">
+    <row r="29" spans="3:5">
+      <c r="C29" s="14"/>
+      <c r="E29" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" ht="21" customHeight="1" spans="3:5">
-      <c r="C34" s="15"/>
-      <c r="E34" s="14" t="s">
+    <row r="30" spans="3:5">
+      <c r="C30" s="14"/>
+      <c r="D30" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" ht="21" customHeight="1" spans="3:5">
-      <c r="C35" s="15"/>
-      <c r="E35" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" ht="21" customHeight="1" spans="3:5">
-      <c r="C36" s="15"/>
-      <c r="E36" s="14" t="s">
+    <row r="31" spans="3:5">
+      <c r="C31" s="14"/>
+      <c r="E31" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" ht="21" customHeight="1" spans="3:5">
-      <c r="C37" s="15"/>
-      <c r="E37" s="14" t="s">
+    <row r="32" spans="3:5">
+      <c r="C32" s="14"/>
+      <c r="E32" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" ht="21" customHeight="1" spans="3:5">
-      <c r="C38" s="15"/>
-      <c r="E38" s="14" t="s">
+    <row r="33" spans="3:5">
+      <c r="C33" s="14"/>
+      <c r="E33" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" ht="21" customHeight="1" spans="3:5">
-      <c r="C39" s="15"/>
-      <c r="D39" s="1" t="s">
+    <row r="34" spans="3:5">
+      <c r="C34" s="14"/>
+      <c r="E34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="14" t="s">
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="14"/>
+      <c r="E35" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" ht="21" customHeight="1" spans="3:5">
-      <c r="C40" s="15"/>
-      <c r="E40" s="14" t="s">
+    <row r="36" spans="3:5">
+      <c r="C36" s="14"/>
+      <c r="E36" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" ht="21" customHeight="1" spans="3:5">
-      <c r="C41" s="15"/>
-      <c r="E41" s="14" t="s">
+    <row r="37" spans="3:5">
+      <c r="C37" s="14"/>
+      <c r="E37" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" ht="21" customHeight="1" spans="3:5">
-      <c r="C42" s="15"/>
-      <c r="E42" s="14" t="s">
+    <row r="38" spans="3:5">
+      <c r="C38" s="14"/>
+      <c r="E38" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" ht="21" customHeight="1" spans="3:5">
-      <c r="C43" s="15"/>
-      <c r="D43" s="1" t="s">
+    <row r="39" spans="3:5">
+      <c r="C39" s="14"/>
+      <c r="D39" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" ht="21" customHeight="1" spans="3:5">
-      <c r="C44" s="15"/>
-      <c r="E44" s="14" t="s">
+    <row r="40" spans="3:5">
+      <c r="C40" s="14"/>
+      <c r="E40" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" ht="21" customHeight="1" spans="3:5">
-      <c r="C45" s="15"/>
-      <c r="E45" s="14" t="s">
+    <row r="41" spans="3:5">
+      <c r="C41" s="14"/>
+      <c r="E41" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" ht="21" customHeight="1" spans="3:5">
-      <c r="C46" s="15"/>
-      <c r="E46" s="14" t="s">
+    <row r="42" spans="3:5">
+      <c r="C42" s="14"/>
+      <c r="E42" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" ht="21" customHeight="1" spans="3:5">
-      <c r="C47" s="15"/>
-      <c r="D47" s="1" t="s">
+    <row r="43" spans="3:5">
+      <c r="C43" s="14"/>
+      <c r="D43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" ht="21" customHeight="1" spans="3:5">
-      <c r="C48" s="15"/>
-      <c r="E48" s="14" t="s">
+    <row r="44" spans="3:5">
+      <c r="C44" s="14"/>
+      <c r="E44" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" ht="21" customHeight="1" spans="3:5">
-      <c r="C49" s="15"/>
-      <c r="E49" s="14" t="s">
+    <row r="45" spans="3:5">
+      <c r="C45" s="14"/>
+      <c r="E45" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" ht="21" customHeight="1" spans="3:5">
-      <c r="C50" s="15"/>
-      <c r="D50" s="1" t="s">
+    <row r="46" spans="3:5">
+      <c r="C46" s="14"/>
+      <c r="E46" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="14" t="s">
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="14"/>
+      <c r="D47" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" ht="21" customHeight="1" spans="3:5">
-      <c r="C51" s="15"/>
-      <c r="E51" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" ht="21" customHeight="1" spans="3:5">
-      <c r="C52" s="15"/>
-      <c r="E52" s="14" t="s">
+    <row r="48" spans="3:5">
+      <c r="C48" s="14"/>
+      <c r="E48" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" ht="21" customHeight="1" spans="3:5">
-      <c r="C53" s="15"/>
-      <c r="E53" s="14" t="s">
+    <row r="49" spans="3:5">
+      <c r="C49" s="14"/>
+      <c r="E49" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" ht="21" customHeight="1" spans="3:5">
-      <c r="C54" s="15"/>
-      <c r="D54" s="1" t="s">
+    <row r="50" spans="3:5">
+      <c r="C50" s="14"/>
+      <c r="D50" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E50" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" ht="21" customHeight="1" spans="3:5">
-      <c r="C55" s="15"/>
-      <c r="E55" s="14" t="s">
+    <row r="51" spans="3:5">
+      <c r="C51" s="14"/>
+      <c r="E51" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" ht="21" customHeight="1" spans="3:5">
-      <c r="C56" s="15"/>
-      <c r="E56" s="14" t="s">
+    <row r="52" spans="3:5">
+      <c r="C52" s="14"/>
+      <c r="E52" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" ht="21" customHeight="1" spans="3:5">
-      <c r="C57" s="15"/>
-      <c r="E57" s="14" t="s">
+    <row r="53" spans="3:5">
+      <c r="C53" s="14"/>
+      <c r="E53" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" ht="21" customHeight="1" spans="3:5">
-      <c r="C58" s="15"/>
-      <c r="E58" s="14" t="s">
+    <row r="54" spans="3:5">
+      <c r="C54" s="14"/>
+      <c r="D54" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" ht="21" customHeight="1" spans="3:5">
-      <c r="C59" s="15"/>
-      <c r="D59" s="1" t="s">
+      <c r="E54" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="14" t="s">
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="14"/>
+      <c r="E55" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" ht="21" customHeight="1" spans="3:5">
-      <c r="C60" s="15"/>
-      <c r="E60" s="14" t="s">
+    <row r="56" spans="3:5">
+      <c r="C56" s="14"/>
+      <c r="E56" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" ht="21" customHeight="1" spans="3:5">
-      <c r="C61" s="15"/>
-      <c r="E61" s="14" t="s">
+    <row r="57" spans="3:5">
+      <c r="C57" s="14"/>
+      <c r="E57" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" ht="21" customHeight="1" spans="3:5">
-      <c r="C62" s="15"/>
-      <c r="E62" s="14" t="s">
+    <row r="58" spans="3:5">
+      <c r="C58" s="14"/>
+      <c r="E58" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" ht="21" customHeight="1" spans="3:5">
-      <c r="C63" s="15"/>
-      <c r="E63" s="14" t="s">
+    <row r="59" spans="3:5">
+      <c r="C59" s="14"/>
+      <c r="D59" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" ht="21" customHeight="1" spans="3:5">
-      <c r="C64" s="15"/>
-      <c r="E64" s="14" t="s">
+      <c r="E59" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" ht="21" customHeight="1" spans="3:5">
-      <c r="C65" s="15"/>
-      <c r="E65" s="14" t="s">
+    <row r="60" spans="3:5">
+      <c r="C60" s="14"/>
+      <c r="E60" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" ht="21" customHeight="1" spans="3:5">
-      <c r="C66" s="15"/>
-      <c r="D66" s="1" t="s">
+    <row r="61" spans="3:5">
+      <c r="C61" s="14"/>
+      <c r="E61" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="14" t="s">
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" s="14"/>
+      <c r="E62" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" ht="21" customHeight="1" spans="3:5">
-      <c r="C67" s="15"/>
-      <c r="E67" s="14" t="s">
+    <row r="63" spans="3:5">
+      <c r="C63" s="14"/>
+      <c r="E63" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" ht="21" customHeight="1" spans="3:5">
-      <c r="C68" s="15"/>
-      <c r="E68" s="14" t="s">
+    <row r="64" spans="3:5">
+      <c r="C64" s="14"/>
+      <c r="E64" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="21" customHeight="1" spans="3:5">
-      <c r="C69" s="15"/>
-      <c r="D69" s="1" t="s">
+    <row r="65" spans="3:5">
+      <c r="C65" s="14"/>
+      <c r="E65" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="14" t="s">
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="14"/>
+      <c r="D66" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" ht="21" customHeight="1" spans="3:5">
-      <c r="C70" s="15"/>
-      <c r="E70" s="14" t="s">
+      <c r="E66" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" ht="21" customHeight="1" spans="3:5">
-      <c r="C71" s="15"/>
-      <c r="D71" s="1" t="s">
+    <row r="67" spans="3:5">
+      <c r="C67" s="14"/>
+      <c r="E67" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" ht="21" customHeight="1" spans="3:5">
-      <c r="C72" s="15"/>
-      <c r="E72" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" ht="21" customHeight="1" spans="3:5">
-      <c r="C73" s="15"/>
-      <c r="E73" s="14" t="s">
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="14"/>
+      <c r="E68" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" ht="21" customHeight="1" spans="3:5">
-      <c r="C74" s="15"/>
-      <c r="E74" s="14" t="s">
+    <row r="69" spans="3:5">
+      <c r="C69" s="14"/>
+      <c r="D69" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="75" ht="21" customHeight="1" spans="3:5">
-      <c r="C75" s="15"/>
-      <c r="E75" s="14" t="s">
+      <c r="E69" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" ht="21" customHeight="1" spans="3:5">
-      <c r="C76" s="15"/>
-      <c r="E76" s="14" t="s">
+    <row r="70" spans="3:5">
+      <c r="C70" s="14"/>
+      <c r="E70" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" ht="21" customHeight="1" spans="3:5">
-      <c r="C77" s="15"/>
-      <c r="D77" s="1" t="s">
+    <row r="71" spans="3:5">
+      <c r="C71" s="14"/>
+      <c r="D71" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E71" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" ht="21" customHeight="1" spans="3:5">
-      <c r="C78" s="15"/>
-      <c r="E78" s="14" t="s">
+    <row r="72" spans="3:5">
+      <c r="C72" s="14"/>
+      <c r="E72" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" ht="21" customHeight="1" spans="3:5">
-      <c r="C79" s="15"/>
-      <c r="D79" s="1" t="s">
+    <row r="73" spans="3:5">
+      <c r="C73" s="14"/>
+      <c r="E73" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E79" s="14" t="s">
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="14"/>
+      <c r="E74" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" ht="21" customHeight="1" spans="3:5">
-      <c r="C80" s="15"/>
-      <c r="E80" s="14" t="s">
+    <row r="75" spans="3:5">
+      <c r="C75" s="14"/>
+      <c r="E75" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" ht="21" customHeight="1" spans="3:5">
-      <c r="C81" s="15"/>
-      <c r="E81" s="14" t="s">
+    <row r="76" spans="3:5">
+      <c r="C76" s="14"/>
+      <c r="E76" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" ht="21" customHeight="1" spans="3:5">
-      <c r="C82" s="15"/>
-      <c r="E82" s="14" t="s">
+    <row r="77" spans="3:5">
+      <c r="C77" s="14"/>
+      <c r="D77" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="83" ht="21" customHeight="1" spans="3:5">
-      <c r="C83" s="15"/>
-      <c r="E83" s="14" t="s">
+      <c r="E77" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="C78" s="14"/>
+      <c r="E78" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="C79" s="14"/>
+      <c r="D79" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="84" ht="21" customHeight="1" spans="3:5">
-      <c r="C84" s="15"/>
-      <c r="E84" s="14" t="s">
+      <c r="E79" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="85" ht="21" customHeight="1" spans="3:5">
-      <c r="C85" s="15"/>
-      <c r="E85" s="14" t="s">
+    <row r="80" spans="3:5">
+      <c r="C80" s="14"/>
+      <c r="E80" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" ht="21" customHeight="1" spans="3:5">
-      <c r="C86" s="15"/>
-      <c r="E86" s="14" t="s">
+    <row r="81" ht="27" spans="3:5">
+      <c r="C81" s="14"/>
+      <c r="E81" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" ht="21" customHeight="1" spans="3:5">
-      <c r="C87" s="15"/>
-      <c r="E87" s="14" t="s">
+    <row r="82" ht="27" spans="3:5">
+      <c r="C82" s="14"/>
+      <c r="E82" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="88" ht="21" customHeight="1" spans="3:5">
-      <c r="C88" s="15"/>
-      <c r="E88" s="14" t="s">
+    <row r="83" ht="27" spans="3:5">
+      <c r="C83" s="14"/>
+      <c r="E83" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="89" ht="21" customHeight="1" spans="3:5">
-      <c r="C89" s="15"/>
-      <c r="E89" s="14" t="s">
+    <row r="84" ht="27" spans="3:5">
+      <c r="C84" s="14"/>
+      <c r="E84" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" ht="21" customHeight="1" spans="3:5">
-      <c r="C90" s="15"/>
-      <c r="E90" s="14" t="s">
+    <row r="85" ht="27" spans="3:5">
+      <c r="C85" s="14"/>
+      <c r="E85" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" ht="21" customHeight="1" spans="3:5">
-      <c r="C91" s="15"/>
-      <c r="D91" s="1" t="s">
+    <row r="86" ht="27" spans="3:5">
+      <c r="C86" s="14"/>
+      <c r="E86" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E91" s="14" t="s">
+    </row>
+    <row r="87" ht="27" spans="3:5">
+      <c r="C87" s="14"/>
+      <c r="E87" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="92" ht="21" customHeight="1" spans="3:5">
-      <c r="C92" s="15"/>
-      <c r="E92" s="14" t="s">
+    <row r="88" ht="27" spans="3:5">
+      <c r="C88" s="14"/>
+      <c r="E88" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" ht="21" customHeight="1" spans="3:5">
-      <c r="C93" s="15"/>
-      <c r="E93" s="14" t="s">
+    <row r="89" spans="3:5">
+      <c r="C89" s="14"/>
+      <c r="E89" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="94" ht="21" customHeight="1" spans="3:5">
-      <c r="C94" s="15"/>
-      <c r="D94" s="1" t="s">
+    <row r="90" spans="3:5">
+      <c r="C90" s="14"/>
+      <c r="E90" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E94" s="14" t="s">
+    </row>
+    <row r="91" ht="27" spans="3:5">
+      <c r="C91" s="14"/>
+      <c r="D91" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="95" ht="21" customHeight="1" spans="3:5">
-      <c r="C95" s="15"/>
-      <c r="E95" s="14" t="s">
+      <c r="E91" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" ht="21" customHeight="1" spans="3:5">
-      <c r="C96" s="15"/>
-      <c r="E96" s="14" t="s">
+    <row r="92" ht="27" spans="3:5">
+      <c r="C92" s="14"/>
+      <c r="E92" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97" ht="21" customHeight="1" spans="3:5">
-      <c r="C97" s="15"/>
-      <c r="E97" s="14" t="s">
+    <row r="93" spans="3:5">
+      <c r="C93" s="14"/>
+      <c r="E93" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" ht="21" customHeight="1" spans="3:5">
-      <c r="C98" s="15"/>
-      <c r="E98" s="14" t="s">
+    <row r="94" spans="3:5">
+      <c r="C94" s="14"/>
+      <c r="D94" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="99" ht="21" customHeight="1" spans="3:5">
-      <c r="C99" s="15"/>
-      <c r="E99" s="14" t="s">
+      <c r="E94" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" ht="21" customHeight="1" spans="3:5">
-      <c r="C100" s="15"/>
-      <c r="E100" s="14" t="s">
+    <row r="95" spans="3:5">
+      <c r="C95" s="14"/>
+      <c r="E95" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="101" ht="21" customHeight="1" spans="3:5">
-      <c r="C101" s="15"/>
-      <c r="E101" s="14" t="s">
+    <row r="96" spans="3:5">
+      <c r="C96" s="14"/>
+      <c r="E96" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102" ht="21" customHeight="1" spans="3:5">
-      <c r="C102" s="15"/>
-      <c r="E102" s="14" t="s">
+    <row r="97" spans="3:5">
+      <c r="C97" s="14"/>
+      <c r="E97" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="103" ht="21" customHeight="1" spans="3:5">
-      <c r="C103" s="15"/>
-      <c r="E103" s="14" t="s">
+    <row r="98" spans="3:5">
+      <c r="C98" s="14"/>
+      <c r="E98" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104" ht="21" customHeight="1" spans="3:5">
-      <c r="C104" s="15"/>
-      <c r="D104" s="1" t="s">
+    <row r="99" spans="3:5">
+      <c r="C99" s="14"/>
+      <c r="E99" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E104" s="14" t="s">
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100" s="14"/>
+      <c r="E100" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" ht="21" customHeight="1" spans="3:5">
-      <c r="C105" s="15"/>
-      <c r="E105" s="14" t="s">
+    <row r="101" spans="3:5">
+      <c r="C101" s="14"/>
+      <c r="E101" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106" ht="21" customHeight="1" spans="3:5">
-      <c r="C106" s="15"/>
-      <c r="E106" s="14" t="s">
+    <row r="102" spans="3:5">
+      <c r="C102" s="14"/>
+      <c r="E102" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107" ht="21" customHeight="1" spans="3:5">
-      <c r="C107" s="15"/>
-      <c r="E107" s="14" t="s">
+    <row r="103" spans="3:5">
+      <c r="C103" s="14"/>
+      <c r="E103" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="108" ht="21" customHeight="1" spans="3:5">
-      <c r="C108" s="15"/>
-      <c r="E108" s="14" t="s">
+    <row r="104" spans="3:5">
+      <c r="C104" s="14"/>
+      <c r="D104" s="12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="109" ht="21" customHeight="1" spans="3:5">
-      <c r="C109" s="15"/>
-      <c r="E109" s="14" t="s">
+      <c r="E104" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" ht="21" customHeight="1" spans="3:5">
-      <c r="C110" s="15"/>
-      <c r="E110" s="14" t="s">
+    <row r="105" spans="3:5">
+      <c r="C105" s="14"/>
+      <c r="E105" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="111" ht="21" customHeight="1" spans="3:5">
-      <c r="C111" s="15"/>
-      <c r="E111" s="14" t="s">
+    <row r="106" spans="3:5">
+      <c r="C106" s="14"/>
+      <c r="E106" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112" ht="21" customHeight="1" spans="3:5">
-      <c r="C112" s="15"/>
-      <c r="E112" s="14" t="s">
+    <row r="107" spans="3:5">
+      <c r="C107" s="14"/>
+      <c r="E107" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="113" ht="21" customHeight="1" spans="3:5">
-      <c r="C113" s="15"/>
-      <c r="D113" s="1" t="s">
+    <row r="108" spans="3:5">
+      <c r="C108" s="14"/>
+      <c r="E108" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E113" s="14" t="s">
+    </row>
+    <row r="109" spans="3:5">
+      <c r="C109" s="14"/>
+      <c r="E109" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="114" ht="21" customHeight="1" spans="3:5">
-      <c r="C114" s="15"/>
-      <c r="E114" s="14" t="s">
+    <row r="110" spans="3:5">
+      <c r="C110" s="14"/>
+      <c r="E110" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115" ht="21" customHeight="1" spans="3:5">
-      <c r="C115" s="15"/>
-      <c r="D115" s="1" t="s">
+    <row r="111" spans="3:5">
+      <c r="C111" s="14"/>
+      <c r="E111" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E115" s="14" t="s">
+    </row>
+    <row r="112" spans="3:5">
+      <c r="C112" s="14"/>
+      <c r="E112" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116" ht="21" customHeight="1" spans="3:3">
-      <c r="C116" s="1" t="s">
+    <row r="113" spans="3:5">
+      <c r="C113" s="14"/>
+      <c r="D113" s="12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="117" ht="21" customHeight="1" spans="3:3">
-      <c r="C117" s="1" t="s">
+      <c r="E113" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="2:2">
-      <c r="B118" s="1" t="s">
+    <row r="114" spans="3:5">
+      <c r="C114" s="14"/>
+      <c r="E114" s="13" t="s">
         <v>161</v>
       </c>
     </row>
+    <row r="115" spans="3:5">
+      <c r="C115" s="14"/>
+      <c r="D115" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A5:A117"/>
     <mergeCell ref="B5:B117"/>
     <mergeCell ref="C5:C115"/>
@@ -2649,19 +2704,20 @@
     <mergeCell ref="D104:D112"/>
     <mergeCell ref="D113:D114"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H7:H17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -2676,7 +2732,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -2685,11 +2741,11 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
@@ -2702,10 +2758,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2713,23 +2769,23 @@
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -2737,17 +2793,17 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D8" s="10"/>
     </row>
@@ -2755,7 +2811,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D9" s="10"/>
     </row>
@@ -2763,7 +2819,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D10" s="10"/>
     </row>
@@ -2771,7 +2827,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -2779,7 +2835,7 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D12" s="10"/>
     </row>
@@ -2787,7 +2843,7 @@
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D13" s="10"/>
     </row>
@@ -2795,7 +2851,7 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D14" s="10"/>
     </row>
@@ -2803,42 +2859,42 @@
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="13" t="s">
-        <v>180</v>
+      <c r="C16" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="13" t="s">
-        <v>182</v>
+      <c r="C17" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="13" t="s">
-        <v>183</v>
+      <c r="C18" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="D18" s="10"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2846,21 +2902,21 @@
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D21" s="10"/>
     </row>
@@ -2868,7 +2924,7 @@
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D22" s="10"/>
     </row>
@@ -2876,7 +2932,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D23" s="10"/>
     </row>
@@ -2884,17 +2940,17 @@
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D25" s="10"/>
     </row>
@@ -2902,7 +2958,7 @@
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D26" s="10"/>
     </row>
@@ -2910,7 +2966,7 @@
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D27" s="10"/>
     </row>
@@ -2918,7 +2974,7 @@
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D28" s="10"/>
     </row>
@@ -2926,7 +2982,7 @@
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D29" s="10"/>
     </row>
@@ -2934,20 +2990,20 @@
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2955,7 +3011,7 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2963,7 +3019,7 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2971,17 +3027,17 @@
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2989,7 +3045,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2997,7 +3053,7 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -3005,14 +3061,14 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -3020,7 +3076,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D40" s="10"/>
     </row>
@@ -3028,16 +3084,16 @@
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -3045,7 +3101,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
